--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpraveenkumar\Documents\UiPath\CalculateClientSecurityHash\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D2D304-CA03-4DF2-9C6F-1BE9D8CFDBF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB971CB-AFEC-4B74-840C-9C1A5BE63ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -620,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
